--- a/example_import_files/patient_examples.xlsx
+++ b/example_import_files/patient_examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markj/Documents/Studium/Master Maschinenbau TH Koeln/Digitalisierung/SAPV_route_optimization/example_import_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3E163-B64E-6442-8E0C-A7CD60E9A729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A57F17F-57A7-F449-8A67-6C9E111937EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20180" xr2:uid="{5CDA6B10-105F-5448-B8D6-FAC426D99158}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="134">
   <si>
     <t>Vorname</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Peter</t>
   </si>
   <si>
-    <t>Bergweg 3</t>
-  </si>
-  <si>
     <t>02261/234567</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>Meyer</t>
   </si>
   <si>
-    <t>Dorfplatz 1</t>
-  </si>
-  <si>
     <t>02267/456789</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Wagner</t>
   </si>
   <si>
-    <t>Kirchweg 22</t>
-  </si>
-  <si>
     <t>Wiehl</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>Koch</t>
   </si>
   <si>
-    <t>Am Bach 17</t>
-  </si>
-  <si>
     <t>02261/789012</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>Bauer</t>
   </si>
   <si>
-    <t>Marktplatz 5</t>
-  </si>
-  <si>
     <t>02267/890123</t>
   </si>
   <si>
@@ -379,18 +364,6 @@
     <t>Weiß</t>
   </si>
   <si>
-    <t>Hauptstraße 12</t>
-  </si>
-  <si>
-    <t>Waldstraße 45</t>
-  </si>
-  <si>
-    <t>Talstraße 8</t>
-  </si>
-  <si>
-    <t>Bergstraße 33</t>
-  </si>
-  <si>
     <t>Tannenstraße 28</t>
   </si>
   <si>
@@ -413,13 +386,49 @@
   </si>
   <si>
     <t>früh morgens</t>
+  </si>
+  <si>
+    <t>Hindenburgstraße 6</t>
+  </si>
+  <si>
+    <t>Moltkestraße 10</t>
+  </si>
+  <si>
+    <t>Breiter Weg 19</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>Lüdenscheider Straße 8</t>
+  </si>
+  <si>
+    <t>Weiherplatz 7</t>
+  </si>
+  <si>
+    <t>Ringstraße 22</t>
+  </si>
+  <si>
+    <t>Kölner Straße 33</t>
+  </si>
+  <si>
+    <t>Marktstraße 5</t>
+  </si>
+  <si>
+    <t>Homburger Straße 2</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -554,6 +563,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -736,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -851,6 +868,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -898,7 +930,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1277,65 +1311,65 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" t="s">
-        <v>112</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
-        <v>114</v>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1346,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>51643</v>
@@ -1396,131 +1430,131 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="D3">
-        <v>51645</v>
+        <v>51643</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
         <v>27</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" t="s">
-        <v>23</v>
-      </c>
       <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
       <c r="Q3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" t="s">
         <v>22</v>
-      </c>
-      <c r="R3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>51647</v>
       </c>
       <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
       <c r="H4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1">
-        <v>0.41666666666666669</v>
+      <c r="J4" t="s">
+        <v>125</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="1">
-        <v>0.41666666666666669</v>
+      <c r="L4" t="s">
+        <v>125</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="1">
-        <v>0.41666666666666669</v>
+      <c r="N4" t="s">
+        <v>125</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="1">
-        <v>0.41666666666666669</v>
+      <c r="P4" t="s">
+        <v>125</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-      <c r="R4" s="1">
-        <v>0.41666666666666669</v>
+        <v>21</v>
+      </c>
+      <c r="R4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>51688</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -1537,75 +1571,75 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>51674</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q6" t="s">
         <v>17</v>
       </c>
       <c r="R6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>51643</v>
+        <v>51645</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1614,60 +1648,60 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="D8">
-        <v>51702</v>
+        <v>51647</v>
       </c>
       <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
         <v>27</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -1681,34 +1715,34 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>51688</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
         <v>17</v>
@@ -1719,22 +1753,22 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>51674</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1743,42 +1777,42 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K10" t="s">
         <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q10" t="s">
         <v>17</v>
       </c>
       <c r="R10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>51643</v>
@@ -1787,7 +1821,7 @@
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1805,18 +1839,18 @@
         <v>17</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>51645</v>
@@ -1825,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1848,78 +1882,78 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13">
         <v>51647</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
       <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" t="s">
         <v>22</v>
       </c>
-      <c r="N13" t="s">
-        <v>23</v>
-      </c>
       <c r="O13" t="s">
         <v>17</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="s">
         <v>17</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>51688</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1934,30 +1968,30 @@
         <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>51674</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1995,13 +2029,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>51643</v>
@@ -2010,16 +2044,16 @@
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" t="s">
         <v>17</v>
@@ -2030,22 +2064,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D17">
         <v>51702</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2060,7 +2094,7 @@
         <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
         <v>17</v>
@@ -2068,25 +2102,25 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>51688</v>
       </c>
       <c r="E18" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2094,58 +2128,58 @@
       <c r="I18" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="1">
-        <v>0.375</v>
+      <c r="J18" t="s">
+        <v>132</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
-      <c r="L18" s="1">
-        <v>0.375</v>
+      <c r="L18" t="s">
+        <v>132</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
-      <c r="N18" s="1">
-        <v>0.375</v>
+      <c r="N18" t="s">
+        <v>132</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="1">
-        <v>0.375</v>
+      <c r="P18" t="s">
+        <v>132</v>
       </c>
       <c r="Q18" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="1">
-        <v>0.375</v>
+      <c r="R18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D19">
         <v>51674</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -2162,13 +2196,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D20">
         <v>51643</v>
@@ -2177,51 +2211,51 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="O20" t="s">
         <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D21">
         <v>51645</v>
@@ -2230,7 +2264,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2253,22 +2287,22 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D22">
         <v>51647</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2277,98 +2311,98 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="O22" t="s">
         <v>17</v>
       </c>
       <c r="P22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="Q22" t="s">
         <v>17</v>
       </c>
       <c r="R22" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D23">
         <v>51688</v>
       </c>
       <c r="E23" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D24">
         <v>51674</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -2382,13 +2416,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D25">
         <v>51643</v>
@@ -2397,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2405,52 +2439,52 @@
       <c r="I25" t="s">
         <v>17</v>
       </c>
-      <c r="J25" s="1">
-        <v>0.45833333333333331</v>
+      <c r="J25" t="s">
+        <v>133</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="1">
-        <v>0.45833333333333331</v>
+      <c r="L25" t="s">
+        <v>133</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
-      <c r="N25" s="1">
-        <v>0.45833333333333331</v>
+      <c r="N25" t="s">
+        <v>133</v>
       </c>
       <c r="O25" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="1">
-        <v>0.45833333333333331</v>
+      <c r="P25" t="s">
+        <v>133</v>
       </c>
       <c r="Q25" t="s">
         <v>17</v>
       </c>
-      <c r="R25" s="1">
-        <v>0.45833333333333331</v>
+      <c r="R25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" t="s">
         <v>118</v>
-      </c>
-      <c r="C26" t="s">
-        <v>127</v>
       </c>
       <c r="D26">
         <v>51702</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2462,31 +2496,31 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O26" t="s">
         <v>17</v>
       </c>
       <c r="P26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="Q26" t="s">
         <v>17</v>
       </c>
       <c r="R26" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/example_import_files/patient_examples.xlsx
+++ b/example_import_files/patient_examples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markj/Documents/Studium/Master Maschinenbau TH Koeln/Digitalisierung/SAPV_route_optimization/example_import_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A57F17F-57A7-F449-8A67-6C9E111937EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE667C-8A0B-054E-85FD-A1C4090C4096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20180" xr2:uid="{5CDA6B10-105F-5448-B8D6-FAC426D99158}"/>
   </bookViews>
@@ -175,9 +175,6 @@
     <t>Klein</t>
   </si>
   <si>
-    <t>Wiesenweg 9</t>
-  </si>
-  <si>
     <t>02261/012345</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Hoffmann</t>
   </si>
   <si>
-    <t>Lindenallee 7</t>
-  </si>
-  <si>
     <t>02261/123789</t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t>Schmitz</t>
   </si>
   <si>
-    <t>Birkenweg 42</t>
-  </si>
-  <si>
     <t>02262/456012</t>
   </si>
   <si>
@@ -250,9 +241,6 @@
     <t>Richter</t>
   </si>
   <si>
-    <t>Eschenallee 24</t>
-  </si>
-  <si>
     <t>02267/789345</t>
   </si>
   <si>
@@ -262,9 +250,6 @@
     <t>Krause</t>
   </si>
   <si>
-    <t>Buchenweg 19</t>
-  </si>
-  <si>
     <t>02262/890456</t>
   </si>
   <si>
@@ -274,9 +259,6 @@
     <t>Werner</t>
   </si>
   <si>
-    <t>Kastanienweg 11</t>
-  </si>
-  <si>
     <t>02261/901567</t>
   </si>
   <si>
@@ -307,9 +289,6 @@
     <t>Friedrich</t>
   </si>
   <si>
-    <t>Kiefernweg 14</t>
-  </si>
-  <si>
     <t>02267/234890</t>
   </si>
   <si>
@@ -367,15 +346,9 @@
     <t>Tannenstraße 28</t>
   </si>
   <si>
-    <t>Ulmenstraße 31</t>
-  </si>
-  <si>
     <t>Pappelstraße 25</t>
   </si>
   <si>
-    <t>Lärchenweg 27</t>
-  </si>
-  <si>
     <t>Fichtenstraße 21</t>
   </si>
   <si>
@@ -406,9 +379,6 @@
     <t>Weiherplatz 7</t>
   </si>
   <si>
-    <t>Ringstraße 22</t>
-  </si>
-  <si>
     <t>Kölner Straße 33</t>
   </si>
   <si>
@@ -422,6 +392,36 @@
   </si>
   <si>
     <t>11:00:00</t>
+  </si>
+  <si>
+    <t>Ringstraße 10</t>
+  </si>
+  <si>
+    <t>Wiesenweg 4</t>
+  </si>
+  <si>
+    <t>Ringstraße 8</t>
+  </si>
+  <si>
+    <t>Birkenweg 10</t>
+  </si>
+  <si>
+    <t>Ulmenstraße 19</t>
+  </si>
+  <si>
+    <t>Eschenallee 4</t>
+  </si>
+  <si>
+    <t>Buchenweg 3</t>
+  </si>
+  <si>
+    <t>Kastanienweg 5</t>
+  </si>
+  <si>
+    <t>Kiefernweg 5</t>
+  </si>
+  <si>
+    <t>Lärchenweg 1</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -1351,25 +1351,25 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1380,10 +1380,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2">
-        <v>51643</v>
+        <v>51645</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -1430,10 +1430,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D3">
         <v>51643</v>
@@ -1486,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D4">
-        <v>51647</v>
+        <v>51645</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -1504,31 +1504,31 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="Q4" t="s">
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1539,13 +1539,13 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5">
-        <v>51688</v>
+        <v>51674</v>
       </c>
       <c r="E5" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>30</v>
@@ -1577,13 +1577,13 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>51674</v>
+        <v>51702</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -1630,13 +1630,13 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D7">
-        <v>51645</v>
+        <v>51688</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1648,31 +1648,31 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Q7" t="s">
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1683,13 +1683,13 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>51647</v>
+        <v>51674</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
         <v>41</v>
@@ -1721,13 +1721,13 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D9">
-        <v>51688</v>
+        <v>51643</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>44</v>
@@ -1759,13 +1759,13 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D10">
-        <v>51674</v>
+        <v>51688</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
@@ -1812,16 +1812,16 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11">
+        <v>51674</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>51</v>
-      </c>
-      <c r="D11">
-        <v>51643</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1844,22 +1844,22 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="D12">
-        <v>51645</v>
+        <v>51643</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1882,22 +1882,22 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13">
+        <v>51643</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
         <v>58</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13">
-        <v>51647</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>60</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1935,22 +1935,22 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14">
+        <v>51647</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14">
-        <v>51688</v>
-      </c>
-      <c r="E14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" t="s">
-        <v>63</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1976,22 +1976,22 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15">
+        <v>51688</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
         <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15">
-        <v>51674</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2029,22 +2029,22 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="D16">
-        <v>51643</v>
+        <v>51674</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2064,22 +2064,22 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D17">
-        <v>51702</v>
+        <v>51647</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2102,22 +2102,22 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D18">
         <v>51688</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -2129,42 +2129,42 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q18" t="s">
         <v>17</v>
       </c>
       <c r="R18" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D19">
         <v>51674</v>
@@ -2173,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2196,22 +2196,22 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>51643</v>
+        <v>51647</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2220,51 +2220,51 @@
         <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s">
         <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
         <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
       </c>
       <c r="R20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="D21">
-        <v>51645</v>
+        <v>51688</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2287,22 +2287,22 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>51647</v>
+        <v>51643</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2311,51 +2311,51 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O22" t="s">
         <v>17</v>
       </c>
       <c r="P22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q22" t="s">
         <v>17</v>
       </c>
       <c r="R22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D23">
-        <v>51688</v>
+        <v>51645</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -2381,22 +2381,22 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D24">
-        <v>51674</v>
+        <v>51647</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D25">
         <v>51643</v>
@@ -2431,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2440,42 +2440,42 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O25" t="s">
         <v>17</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Q25" t="s">
         <v>17</v>
       </c>
       <c r="R25" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D26">
         <v>51702</v>
@@ -2484,7 +2484,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2496,31 +2496,31 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O26" t="s">
         <v>17</v>
       </c>
       <c r="P26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q26" t="s">
         <v>17</v>
       </c>
       <c r="R26" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/example_import_files/patient_examples.xlsx
+++ b/example_import_files/patient_examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markj/Documents/Studium/Master Maschinenbau TH Koeln/Digitalisierung/SAPV_route_optimization/example_import_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE667C-8A0B-054E-85FD-A1C4090C4096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F894D-5454-564E-8F10-C9457501EDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20180" xr2:uid="{5CDA6B10-105F-5448-B8D6-FAC426D99158}"/>
   </bookViews>
@@ -343,9 +343,6 @@
     <t>Weiß</t>
   </si>
   <si>
-    <t>Tannenstraße 28</t>
-  </si>
-  <si>
     <t>Pappelstraße 25</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>Lärchenweg 1</t>
+  </si>
+  <si>
+    <t>Lüdenscheider Straße 2</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -1380,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2">
         <v>51645</v>
@@ -1433,7 +1433,7 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>51643</v>
@@ -1486,7 +1486,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>51645</v>
@@ -1504,31 +1504,31 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q4" t="s">
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -1539,7 +1539,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>51674</v>
@@ -1577,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>51702</v>
@@ -1630,13 +1630,13 @@
         <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>51688</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -1648,31 +1648,31 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q7" t="s">
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
@@ -1683,7 +1683,7 @@
         <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8">
         <v>51674</v>
@@ -1721,7 +1721,7 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9">
         <v>51643</v>
@@ -1759,13 +1759,13 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>51688</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
         <v>47</v>
@@ -1812,7 +1812,7 @@
         <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>51674</v>
@@ -1850,7 +1850,7 @@
         <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>51643</v>
@@ -1888,7 +1888,7 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13">
         <v>51643</v>
@@ -1941,7 +1941,7 @@
         <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14">
         <v>51647</v>
@@ -1982,13 +1982,13 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15">
         <v>51688</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
         <v>64</v>
@@ -2035,7 +2035,7 @@
         <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16">
         <v>51674</v>
@@ -2070,7 +2070,7 @@
         <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D17">
         <v>51647</v>
@@ -2108,13 +2108,13 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18">
         <v>51688</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
         <v>73</v>
@@ -2129,31 +2129,31 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q18" t="s">
         <v>17</v>
       </c>
       <c r="R18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -2164,7 +2164,7 @@
         <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19">
         <v>51674</v>
@@ -2255,13 +2255,13 @@
         <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D21">
         <v>51688</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
         <v>83</v>
@@ -2387,7 +2387,7 @@
         <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D24">
         <v>51647</v>
@@ -2440,31 +2440,31 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O25" t="s">
         <v>17</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q25" t="s">
         <v>17</v>
       </c>
       <c r="R25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -2475,7 +2475,7 @@
         <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26">
         <v>51702</v>

--- a/example_import_files/patient_examples.xlsx
+++ b/example_import_files/patient_examples.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markj/Documents/Studium/Master Maschinenbau TH Koeln/Digitalisierung/SAPV_route_optimization/example_import_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9F894D-5454-564E-8F10-C9457501EDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B3391B-D5BD-0947-BAB0-C4210E49BD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20180" xr2:uid="{5CDA6B10-105F-5448-B8D6-FAC426D99158}"/>
   </bookViews>
@@ -103,9 +103,6 @@
     <t>02261/345678</t>
   </si>
   <si>
-    <t>Neuaufnahme</t>
-  </si>
-  <si>
     <t>Klaus</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>Lüdenscheider Straße 2</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1311,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -1351,25 +1351,25 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1380,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>51645</v>
@@ -1430,10 +1430,10 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3">
         <v>51643</v>
@@ -1454,7 +1454,7 @@
         <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
@@ -1486,7 +1486,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>51645</v>
@@ -1504,57 +1504,57 @@
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O4" t="s">
         <v>17</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q4" t="s">
         <v>21</v>
       </c>
       <c r="R4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>51674</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="K5" t="s">
         <v>17</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>51702</v>
@@ -1586,60 +1586,60 @@
         <v>25</v>
       </c>
       <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
         <v>34</v>
       </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
       <c r="K6" t="s">
         <v>21</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
         <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q6" t="s">
         <v>17</v>
       </c>
       <c r="R6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>51688</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1648,51 +1648,51 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
       </c>
       <c r="N7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O7" t="s">
         <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q7" t="s">
         <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>51674</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -1701,7 +1701,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9">
         <v>51643</v>
@@ -1730,7 +1730,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1753,75 +1753,75 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10">
         <v>51688</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
         <v>47</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
       <c r="K10" t="s">
         <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O10" t="s">
         <v>21</v>
       </c>
       <c r="P10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q10" t="s">
         <v>17</v>
       </c>
       <c r="R10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11">
         <v>51674</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>51643</v>
@@ -1859,7 +1859,7 @@
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1882,13 +1882,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
         <v>55</v>
       </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13">
         <v>51643</v>
@@ -1897,13 +1897,13 @@
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
         <v>22</v>
@@ -1935,13 +1935,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
         <v>59</v>
       </c>
-      <c r="B14" t="s">
-        <v>60</v>
-      </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14">
         <v>51647</v>
@@ -1950,7 +1950,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -1976,22 +1976,22 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
         <v>62</v>
       </c>
-      <c r="B15" t="s">
-        <v>63</v>
-      </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15">
         <v>51688</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2029,28 +2029,28 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16">
         <v>51674</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
         <v>21</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D17">
         <v>51647</v>
@@ -2079,7 +2079,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2102,22 +2102,22 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
-        <v>72</v>
-      </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D18">
         <v>51688</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -2129,57 +2129,57 @@
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
       </c>
       <c r="N18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O18" t="s">
         <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q18" t="s">
         <v>17</v>
       </c>
       <c r="R18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
-        <v>75</v>
-      </c>
       <c r="C19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D19">
         <v>51674</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="K19" t="s">
         <v>17</v>
@@ -2196,13 +2196,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>51647</v>
@@ -2211,60 +2211,60 @@
         <v>25</v>
       </c>
       <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J20" t="s">
         <v>79</v>
       </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" t="s">
-        <v>80</v>
-      </c>
       <c r="K20" t="s">
         <v>21</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
         <v>21</v>
       </c>
       <c r="N20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O20" t="s">
         <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21">
         <v>51688</v>
       </c>
       <c r="E21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2287,13 +2287,13 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
         <v>84</v>
       </c>
-      <c r="B22" t="s">
-        <v>85</v>
-      </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>51643</v>
@@ -2302,7 +2302,7 @@
         <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2311,42 +2311,42 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s">
         <v>17</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O22" t="s">
         <v>17</v>
       </c>
       <c r="P22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q22" t="s">
         <v>17</v>
       </c>
       <c r="R22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
         <v>87</v>
       </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>51645</v>
@@ -2355,7 +2355,7 @@
         <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -2381,13 +2381,13 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
         <v>90</v>
       </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24">
         <v>51647</v>
@@ -2396,13 +2396,13 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -2416,13 +2416,13 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
         <v>93</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>95</v>
       </c>
       <c r="D25">
         <v>51643</v>
@@ -2431,7 +2431,7 @@
         <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2440,42 +2440,42 @@
         <v>17</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K25" t="s">
         <v>17</v>
       </c>
       <c r="L25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
       </c>
       <c r="N25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O25" t="s">
         <v>17</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q25" t="s">
         <v>17</v>
       </c>
       <c r="R25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26">
         <v>51702</v>
@@ -2484,7 +2484,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2496,31 +2496,31 @@
         <v>17</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s">
         <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O26" t="s">
         <v>17</v>
       </c>
       <c r="P26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q26" t="s">
         <v>17</v>
       </c>
       <c r="R26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
